--- a/Soil_nematodes_all_data_final_Dryad.xlsx
+++ b/Soil_nematodes_all_data_final_Dryad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmanns/Dropbox/Lavoro/Manuscripts/2021/Yasmeen_nematodes/submission/Ecology&amp;Evolution/re-resubmission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobyz\Desktop\BIS15W2025_group12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0F85BA-CB4A-B241-9A30-CD59A40F4DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF83A52-0131-497D-A868-98FA163B2A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_matrix" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,19 +426,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -517,9 +514,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,26 +549,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,26 +584,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,16 +766,16 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="40.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="40.77734375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -822,159 +785,159 @@
     <col min="16" max="16" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="32" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="35" max="39" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="40" max="43" width="19" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="40.83203125" style="3"/>
+    <col min="44" max="16384" width="40.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="42" thickBot="1">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -993,13 +956,13 @@
       <c r="F2" s="6">
         <v>6.84</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>4</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>19.2</v>
       </c>
       <c r="J2" s="2">
@@ -1032,80 +995,80 @@
       <c r="S2" s="2">
         <v>232</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="10">
         <v>1.18</v>
       </c>
-      <c r="U2" s="11">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11">
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
         <v>151.65</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="10">
         <v>148.38999999999999</v>
       </c>
-      <c r="X2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="11">
+      <c r="X2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="10">
         <v>100</v>
       </c>
-      <c r="AA2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI2" s="11">
+      <c r="AA2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" s="10">
         <v>81.5</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="10">
         <v>18.5</v>
       </c>
-      <c r="AK2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1124,13 +1087,13 @@
       <c r="F3" s="6">
         <v>6.79</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>17.3</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>17.2</v>
       </c>
       <c r="J3" s="2">
@@ -1163,80 +1126,80 @@
       <c r="S3" s="2">
         <v>240</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>1.35</v>
       </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11">
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
         <v>205.98</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <v>193.86</v>
       </c>
-      <c r="X3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="11">
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10">
         <v>93.6</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="10">
         <v>6.4</v>
       </c>
-      <c r="AB3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI3" s="11">
+      <c r="AB3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI3" s="10">
         <v>78.2</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AJ3" s="10">
         <v>15.5</v>
       </c>
-      <c r="AK3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="11">
+      <c r="AK3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="10">
         <v>6.4</v>
       </c>
-      <c r="AM3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ3" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1255,13 +1218,13 @@
       <c r="F4" s="6">
         <v>6.19</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>21</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>15.5</v>
       </c>
       <c r="J4" s="2">
@@ -1294,80 +1257,80 @@
       <c r="S4" s="2">
         <v>302</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <v>1.5</v>
       </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11">
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
         <v>79.92</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="10">
         <v>66.16</v>
       </c>
-      <c r="X4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="11">
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
         <v>100</v>
       </c>
-      <c r="AA4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI4" s="11">
+      <c r="AA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI4" s="10">
         <v>50</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AJ4" s="10">
         <v>50</v>
       </c>
-      <c r="AK4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1386,13 +1349,13 @@
       <c r="F5" s="6">
         <v>6.1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>23.8</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>14.8</v>
       </c>
       <c r="J5" s="2">
@@ -1425,80 +1388,80 @@
       <c r="S5" s="2">
         <v>318</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <v>1.59</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="10">
         <v>2.19</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <v>70.45</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="10">
         <v>51.74</v>
       </c>
-      <c r="X5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="11">
+      <c r="X5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10">
         <v>3.7</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="10">
         <v>96.3</v>
       </c>
-      <c r="AA5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI5" s="11">
+      <c r="AA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI5" s="10">
         <v>41.1</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5" s="10">
         <v>58.9</v>
       </c>
-      <c r="AK5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ5" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1517,13 +1480,13 @@
       <c r="F6" s="6">
         <v>6.5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>25.1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>13.5</v>
       </c>
       <c r="J6" s="2">
@@ -1556,80 +1519,80 @@
       <c r="S6" s="2">
         <v>346</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <v>1.85</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="10">
         <v>3.17</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <v>42.77</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <v>26.93</v>
       </c>
-      <c r="X6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="11">
+      <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
         <v>11.5</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="10">
         <v>81.2</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="10">
         <v>7.3</v>
       </c>
-      <c r="AB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI6" s="11">
+      <c r="AB6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI6" s="10">
         <v>44</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AJ6" s="10">
         <v>42.9</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AK6" s="10">
         <v>2.6</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AL6" s="10">
         <v>5.2</v>
       </c>
-      <c r="AM6" s="11">
+      <c r="AM6" s="10">
         <v>5.2</v>
       </c>
-      <c r="AN6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ6" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1648,13 +1611,13 @@
       <c r="F7" s="6">
         <v>6.23</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>25.5</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>12</v>
       </c>
       <c r="J7" s="2">
@@ -1687,80 +1650,80 @@
       <c r="S7" s="2">
         <v>324</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="10">
         <v>2.96</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="10">
         <v>21.88</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="10">
         <v>306.45</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="10">
         <v>11.38</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="10">
         <v>20</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="10">
         <v>9.1</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="10">
         <v>48.3</v>
       </c>
-      <c r="AA7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="11">
+      <c r="AA7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
         <v>22.6</v>
       </c>
-      <c r="AC7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
         <v>33.799999999999997</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="10">
         <v>10.4</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="10">
         <v>55.8</v>
       </c>
-      <c r="AG7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
+      <c r="AG7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="10">
         <v>8.1</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AJ7" s="10">
         <v>43.5</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AK7" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7" s="10">
         <v>46.1</v>
       </c>
-      <c r="AM7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="11">
+      <c r="AM7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="10">
         <v>67.5</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7" s="10">
         <v>32.5</v>
       </c>
-      <c r="AQ7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1779,13 +1742,13 @@
       <c r="F8" s="6">
         <v>5.69</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>26</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>8.8000000000000007</v>
       </c>
       <c r="J8" s="2">
@@ -1818,80 +1781,80 @@
       <c r="S8" s="2">
         <v>374</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <v>3.07</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="10">
         <v>18.309999999999999</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="10">
         <v>239.51</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="10">
         <v>13.2</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="10">
         <v>25.5</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="10">
         <v>6.8</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="10">
         <v>42.7</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="10">
         <v>8.4</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="10">
         <v>16.600000000000001</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AC8" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AD8" s="10">
         <v>26.6</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="10">
         <v>18.5</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8" s="10">
         <v>45.2</v>
       </c>
-      <c r="AG8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="11">
+      <c r="AG8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="10">
         <v>8</v>
       </c>
-      <c r="AJ8" s="11">
+      <c r="AJ8" s="10">
         <v>28.7</v>
       </c>
-      <c r="AK8" s="11">
+      <c r="AK8" s="10">
         <v>22.6</v>
       </c>
-      <c r="AL8" s="11">
+      <c r="AL8" s="10">
         <v>38</v>
       </c>
-      <c r="AM8" s="11">
+      <c r="AM8" s="10">
         <v>2.8</v>
       </c>
-      <c r="AN8" s="11">
+      <c r="AN8" s="10">
         <v>12.1</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AO8" s="10">
         <v>54</v>
       </c>
-      <c r="AP8" s="11">
+      <c r="AP8" s="10">
         <v>24.2</v>
       </c>
-      <c r="AQ8" s="13">
+      <c r="AQ8" s="12">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1910,13 +1873,13 @@
       <c r="F9" s="6">
         <v>6.39</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.5</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>28.2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>7.2</v>
       </c>
       <c r="J9" s="2">
@@ -1949,80 +1912,80 @@
       <c r="S9" s="2">
         <v>394</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <v>3.4</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="10">
         <v>72.73</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="10">
         <v>755.34</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="10">
         <v>9.6</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="10">
         <v>22.2</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="10">
         <v>18.3</v>
       </c>
-      <c r="AA9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="11">
+      <c r="AA9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10">
         <v>49.4</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9" s="10">
         <v>5.5</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AD9" s="10">
         <v>37.6</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AE9" s="10">
         <v>23.9</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9" s="10">
         <v>33</v>
       </c>
-      <c r="AG9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="11">
+      <c r="AG9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="10">
         <v>0.8</v>
       </c>
-      <c r="AJ9" s="11">
+      <c r="AJ9" s="10">
         <v>17.8</v>
       </c>
-      <c r="AK9" s="11">
+      <c r="AK9" s="10">
         <v>8.6</v>
       </c>
-      <c r="AL9" s="11">
+      <c r="AL9" s="10">
         <v>72.8</v>
       </c>
-      <c r="AM9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="11">
+      <c r="AM9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="10">
         <v>20.2</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AO9" s="10">
         <v>74.3</v>
       </c>
-      <c r="AP9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="13">
+      <c r="AP9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="12">
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2041,13 +2004,13 @@
       <c r="F10" s="6">
         <v>6.07</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>28</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>5</v>
       </c>
       <c r="J10" s="2">
@@ -2080,80 +2043,80 @@
       <c r="S10" s="2">
         <v>408</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="10">
         <v>3.38</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="10">
         <v>21.21</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="10">
         <v>555.42999999999995</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="10">
         <v>4.6100000000000003</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="10">
         <v>29.8</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="10">
         <v>7.7</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="10">
         <v>16.100000000000001</v>
       </c>
-      <c r="AA10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="11">
+      <c r="AA10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="10">
         <v>46.4</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10" s="10">
         <v>9.4</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="10">
         <v>34.5</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AE10" s="10">
         <v>22.3</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF10" s="10">
         <v>33.799999999999997</v>
       </c>
-      <c r="AG10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="11">
+      <c r="AG10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="10">
         <v>4</v>
       </c>
-      <c r="AJ10" s="11">
+      <c r="AJ10" s="10">
         <v>13.8</v>
       </c>
-      <c r="AK10" s="11">
+      <c r="AK10" s="10">
         <v>6.4</v>
       </c>
-      <c r="AL10" s="11">
+      <c r="AL10" s="10">
         <v>75.8</v>
       </c>
-      <c r="AM10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="11">
+      <c r="AM10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="10">
         <v>18</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AO10" s="10">
         <v>72.7</v>
       </c>
-      <c r="AP10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="13">
+      <c r="AP10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="12">
         <v>9.4</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2172,13 +2135,13 @@
       <c r="F11" s="6">
         <v>6.18</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.5</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>29.9</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>4.8</v>
       </c>
       <c r="J11" s="2">
@@ -2211,80 +2174,80 @@
       <c r="S11" s="2">
         <v>367</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="10">
         <v>3.49</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="10">
         <v>11.5</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="10">
         <v>612.83000000000004</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="10">
         <v>7.19</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="10">
         <v>20.7</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="10">
         <v>8</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="10">
         <v>10.3</v>
       </c>
-      <c r="AA11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="11">
+      <c r="AA11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="10">
         <v>61</v>
       </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
+      <c r="AC11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="10">
         <v>43.1</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AE11" s="10">
         <v>27.6</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AF11" s="10">
         <v>29.3</v>
       </c>
-      <c r="AG11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="11">
+      <c r="AG11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="10">
         <v>5.6</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AJ11" s="10">
         <v>2.9</v>
       </c>
-      <c r="AK11" s="11">
+      <c r="AK11" s="10">
         <v>7.4</v>
       </c>
-      <c r="AL11" s="11">
+      <c r="AL11" s="10">
         <v>84</v>
       </c>
-      <c r="AM11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="11">
+      <c r="AM11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="10">
         <v>29.3</v>
       </c>
-      <c r="AO11" s="11">
+      <c r="AO11" s="10">
         <v>70.7</v>
       </c>
-      <c r="AP11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2300,16 +2263,16 @@
       <c r="E12" s="2">
         <v>1114</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>6.28</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>18.399999999999999</v>
       </c>
       <c r="J12" s="2">
@@ -2342,80 +2305,80 @@
       <c r="S12" s="2">
         <v>214</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>2.0699999999999998</v>
       </c>
-      <c r="U12" s="11">
-        <v>0</v>
-      </c>
-      <c r="V12" s="11">
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
         <v>104.52</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="10">
         <v>83.92</v>
       </c>
-      <c r="X12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="11">
+      <c r="X12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10">
         <v>74.3</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="10">
         <v>25.7</v>
       </c>
-      <c r="AB12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI12" s="11">
+      <c r="AB12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI12" s="10">
         <v>44.8</v>
       </c>
-      <c r="AJ12" s="11">
+      <c r="AJ12" s="10">
         <v>29.5</v>
       </c>
-      <c r="AK12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="11">
+      <c r="AK12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="10">
         <v>25.7</v>
       </c>
-      <c r="AM12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ12" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,16 +2394,16 @@
       <c r="E13" s="2">
         <v>1306</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>6.71</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>6</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>18.3</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>17.3</v>
       </c>
       <c r="J13" s="2">
@@ -2473,80 +2436,80 @@
       <c r="S13" s="2">
         <v>227</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="10">
         <v>1.53</v>
       </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
+      <c r="U13" s="10">
+        <v>0</v>
+      </c>
+      <c r="V13" s="10">
         <v>48.53</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="10">
         <v>46.82</v>
       </c>
-      <c r="X13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="11">
+      <c r="X13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="10">
         <v>100</v>
       </c>
-      <c r="AA13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI13" s="11">
+      <c r="AA13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI13" s="10">
         <v>50.5</v>
       </c>
-      <c r="AJ13" s="11">
+      <c r="AJ13" s="10">
         <v>45.5</v>
       </c>
-      <c r="AK13" s="11">
+      <c r="AK13" s="10">
         <v>4</v>
       </c>
-      <c r="AL13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ13" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AL13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ13" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -2562,16 +2525,16 @@
       <c r="E14" s="2">
         <v>1652</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>6.81</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>6</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>19.2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>16.8</v>
       </c>
       <c r="J14" s="2">
@@ -2604,80 +2567,80 @@
       <c r="S14" s="2">
         <v>245</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="10">
         <v>1.62</v>
       </c>
-      <c r="U14" s="11">
-        <v>0</v>
-      </c>
-      <c r="V14" s="11">
+      <c r="U14" s="10">
+        <v>0</v>
+      </c>
+      <c r="V14" s="10">
         <v>86.82</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="10">
         <v>73.33</v>
       </c>
-      <c r="X14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="11">
+      <c r="X14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="10">
         <v>100</v>
       </c>
-      <c r="AA14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI14" s="11">
+      <c r="AA14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI14" s="10">
         <v>37.6</v>
       </c>
-      <c r="AJ14" s="11">
+      <c r="AJ14" s="10">
         <v>62.4</v>
       </c>
-      <c r="AK14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ14" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ14" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,16 +2656,16 @@
       <c r="E15" s="2">
         <v>1733</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>5.79</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>6</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>22.8</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>15.5</v>
       </c>
       <c r="J15" s="2">
@@ -2735,80 +2698,80 @@
       <c r="S15" s="2">
         <v>262</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="10">
         <v>2.35</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="10">
         <v>4.83</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="10">
         <v>224.64</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="10">
         <v>44.19</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="10">
         <v>8.6</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="10">
         <v>8.6</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="10">
         <v>57.6</v>
       </c>
-      <c r="AA15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="11">
+      <c r="AA15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="10">
         <v>25.1</v>
       </c>
-      <c r="AC15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="11">
+      <c r="AC15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="10">
         <v>100</v>
       </c>
-      <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="11">
+      <c r="AF15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="10">
         <v>29.6</v>
       </c>
-      <c r="AJ15" s="11">
+      <c r="AJ15" s="10">
         <v>39.5</v>
       </c>
-      <c r="AK15" s="11">
+      <c r="AK15" s="10">
         <v>3.4</v>
       </c>
-      <c r="AL15" s="11">
+      <c r="AL15" s="10">
         <v>27.5</v>
       </c>
-      <c r="AM15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="11">
+      <c r="AM15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="10">
         <v>100</v>
       </c>
-      <c r="AP15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,16 +2787,16 @@
       <c r="E16" s="2">
         <v>2152</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>5.21</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>5</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>24.1</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>14.2</v>
       </c>
       <c r="J16" s="2">
@@ -2866,80 +2829,80 @@
       <c r="S16" s="2">
         <v>264</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="10">
         <v>2.81</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="10">
         <v>7.69</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="10">
         <v>266.60000000000002</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="10">
         <v>45.44</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="10">
         <v>6.4</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="10">
         <v>12.3</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="10">
         <v>35.700000000000003</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AA16" s="10">
         <v>4.3</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AB16" s="10">
         <v>41.3</v>
       </c>
-      <c r="AC16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="11">
+      <c r="AC16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="10">
         <v>100</v>
       </c>
-      <c r="AF16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="11">
+      <c r="AF16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="10">
         <v>23.2</v>
       </c>
-      <c r="AJ16" s="11">
+      <c r="AJ16" s="10">
         <v>22.7</v>
       </c>
-      <c r="AK16" s="11">
+      <c r="AK16" s="10">
         <v>5.5</v>
       </c>
-      <c r="AL16" s="11">
+      <c r="AL16" s="10">
         <v>48.6</v>
       </c>
-      <c r="AM16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="11">
+      <c r="AM16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="10">
         <v>100</v>
       </c>
-      <c r="AP16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,16 +2918,16 @@
       <c r="E17" s="2">
         <v>2641</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>6.2</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>4</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>26</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>11.5</v>
       </c>
       <c r="J17" s="2">
@@ -2997,80 +2960,80 @@
       <c r="S17" s="2">
         <v>321</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="10">
         <v>3.32</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="10">
         <v>100</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="10">
         <v>138.72999999999999</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="10">
         <v>5.29</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="10">
         <v>10.1</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="10">
         <v>12.1</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="10">
         <v>30.2</v>
       </c>
-      <c r="AA17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="11">
+      <c r="AA17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="10">
         <v>47.5</v>
       </c>
-      <c r="AC17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="11">
+      <c r="AC17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="10">
         <v>100</v>
       </c>
-      <c r="AF17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="11">
+      <c r="AF17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="10">
         <v>30.2</v>
       </c>
-      <c r="AK17" s="11">
+      <c r="AK17" s="10">
         <v>3.7</v>
       </c>
-      <c r="AL17" s="11">
+      <c r="AL17" s="10">
         <v>66.099999999999994</v>
       </c>
-      <c r="AM17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="11">
+      <c r="AM17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="10">
         <v>100</v>
       </c>
-      <c r="AP17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -3086,16 +3049,16 @@
       <c r="E18" s="2">
         <v>2677</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>6.26</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>3</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>27</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>9.3000000000000007</v>
       </c>
       <c r="J18" s="2">
@@ -3128,80 +3091,80 @@
       <c r="S18" s="2">
         <v>339</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="10">
         <v>3.33</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="10">
         <v>26.76</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="10">
         <v>289.82</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="10">
         <v>53.38</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X18" s="10">
         <v>6.3</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y18" s="10">
         <v>7.1</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18" s="10">
         <v>30.1</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AA18" s="10">
         <v>16</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AB18" s="10">
         <v>40.6</v>
       </c>
-      <c r="AC18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="11">
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
         <v>23.7</v>
       </c>
-      <c r="AE18" s="11">
+      <c r="AE18" s="10">
         <v>13.2</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AF18" s="10">
         <v>63.2</v>
       </c>
-      <c r="AG18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="11">
+      <c r="AG18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AJ18" s="11">
+      <c r="AJ18" s="10">
         <v>26.1</v>
       </c>
-      <c r="AK18" s="11">
+      <c r="AK18" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL18" s="11">
+      <c r="AL18" s="10">
         <v>63.9</v>
       </c>
-      <c r="AM18" s="11">
+      <c r="AM18" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AN18" s="11">
+      <c r="AN18" s="10">
         <v>28.9</v>
       </c>
-      <c r="AO18" s="11">
+      <c r="AO18" s="10">
         <v>71.099999999999994</v>
       </c>
-      <c r="AP18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,16 +3180,16 @@
       <c r="E19" s="2">
         <v>3109</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>6.39</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>3</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>29</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>7.1</v>
       </c>
       <c r="J19" s="2">
@@ -3259,80 +3222,80 @@
       <c r="S19" s="2">
         <v>237</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="10">
         <v>3.15</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="10">
         <v>16.54</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="10">
         <v>242.68</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W19" s="10">
         <v>19.84</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="10">
         <v>16.2</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="10">
         <v>6.9</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z19" s="10">
         <v>34.700000000000003</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AA19" s="10">
         <v>1.6</v>
       </c>
-      <c r="AB19" s="11">
+      <c r="AB19" s="10">
         <v>40.6</v>
       </c>
-      <c r="AC19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="11">
+      <c r="AC19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="10">
         <v>11.8</v>
       </c>
-      <c r="AE19" s="11">
+      <c r="AE19" s="10">
         <v>45.5</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AF19" s="10">
         <v>42.7</v>
       </c>
-      <c r="AG19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="11">
+      <c r="AG19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AJ19" s="10">
         <v>26.4</v>
       </c>
-      <c r="AK19" s="11">
+      <c r="AK19" s="10">
         <v>2.1</v>
       </c>
-      <c r="AL19" s="11">
+      <c r="AL19" s="10">
         <v>62.1</v>
       </c>
-      <c r="AM19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="11">
+      <c r="AM19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="10">
         <v>10.9</v>
       </c>
-      <c r="AO19" s="11">
+      <c r="AO19" s="10">
         <v>70.900000000000006</v>
       </c>
-      <c r="AP19" s="11">
+      <c r="AP19" s="10">
         <v>18.2</v>
       </c>
-      <c r="AQ19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -3348,16 +3311,16 @@
       <c r="E20" s="2">
         <v>3557</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>6.04</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>0.5</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>31</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>5</v>
       </c>
       <c r="J20" s="2">
@@ -3390,80 +3353,80 @@
       <c r="S20" s="2">
         <v>276</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="10">
         <v>3.56</v>
       </c>
-      <c r="U20" s="11">
-        <v>0</v>
-      </c>
-      <c r="V20" s="11">
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10">
         <v>293.37</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W20" s="10">
         <v>10.68</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="10">
         <v>18.5</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y20" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20" s="10">
         <v>13.9</v>
       </c>
-      <c r="AA20" s="11">
+      <c r="AA20" s="10">
         <v>4</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AB20" s="10">
         <v>62.5</v>
       </c>
-      <c r="AC20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="11">
+      <c r="AC20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="10">
         <v>6</v>
       </c>
-      <c r="AE20" s="11">
+      <c r="AE20" s="10">
         <v>38.799999999999997</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AF20" s="10">
         <v>55.2</v>
       </c>
-      <c r="AG20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="11">
+      <c r="AG20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AJ20" s="11">
+      <c r="AJ20" s="10">
         <v>5.5</v>
       </c>
-      <c r="AK20" s="11">
+      <c r="AK20" s="10">
         <v>6.7</v>
       </c>
-      <c r="AL20" s="11">
+      <c r="AL20" s="10">
         <v>82.9</v>
       </c>
-      <c r="AM20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="11">
+      <c r="AM20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="10">
         <v>17.2</v>
       </c>
-      <c r="AO20" s="11">
+      <c r="AO20" s="10">
         <v>58.6</v>
       </c>
-      <c r="AP20" s="11">
+      <c r="AP20" s="10">
         <v>24.1</v>
       </c>
-      <c r="AQ20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -3479,16 +3442,16 @@
       <c r="E21" s="2">
         <v>3724</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>6.22</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>0.1</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>32.200000000000003</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>4.9000000000000004</v>
       </c>
       <c r="J21" s="2">
@@ -3521,105 +3484,105 @@
       <c r="S21" s="2">
         <v>234</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="10">
         <v>3.55</v>
       </c>
-      <c r="U21" s="11">
-        <v>0</v>
-      </c>
-      <c r="V21" s="11">
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10">
         <v>333.72</v>
       </c>
-      <c r="W21" s="11">
+      <c r="W21" s="10">
         <v>6.26</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="10">
         <v>15.5</v>
       </c>
-      <c r="Y21" s="11">
+      <c r="Y21" s="10">
         <v>1.6</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z21" s="10">
         <v>12</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AA21" s="10">
         <v>5.6</v>
       </c>
-      <c r="AB21" s="11">
+      <c r="AB21" s="10">
         <v>65.2</v>
       </c>
-      <c r="AC21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="11">
+      <c r="AC21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="10">
         <v>41.9</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AF21" s="10">
         <v>58.1</v>
       </c>
-      <c r="AG21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="11">
+      <c r="AG21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AJ21" s="11">
+      <c r="AJ21" s="10">
         <v>6.5</v>
       </c>
-      <c r="AK21" s="11">
+      <c r="AK21" s="10">
         <v>3.3</v>
       </c>
-      <c r="AL21" s="11">
+      <c r="AL21" s="10">
         <v>85.8</v>
       </c>
-      <c r="AM21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="11">
+      <c r="AM21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="10">
         <v>29.5</v>
       </c>
-      <c r="AO21" s="11">
+      <c r="AO21" s="10">
         <v>70.5</v>
       </c>
-      <c r="AP21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>33.401825000000002</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>74.327608330000004</v>
       </c>
       <c r="E22" s="2">
         <v>1025</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>6.71</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>6</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>17.100000000000001</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>17.2</v>
       </c>
       <c r="J22" s="2">
@@ -3652,105 +3615,105 @@
       <c r="S22" s="2">
         <v>206</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="10">
         <v>1.81</v>
       </c>
-      <c r="U22" s="11">
-        <v>0</v>
-      </c>
-      <c r="V22" s="11">
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
         <v>123.2</v>
       </c>
-      <c r="W22" s="11">
+      <c r="W22" s="10">
         <v>57.92</v>
       </c>
-      <c r="X22" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="11">
+      <c r="X22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="10">
         <v>82</v>
       </c>
-      <c r="AA22" s="11">
+      <c r="AA22" s="10">
         <v>12</v>
       </c>
-      <c r="AB22" s="11">
+      <c r="AB22" s="10">
         <v>6</v>
       </c>
-      <c r="AC22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI22" s="11">
+      <c r="AC22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI22" s="10">
         <v>55.1</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AJ22" s="10">
         <v>26.9</v>
       </c>
-      <c r="AK22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="11">
+      <c r="AK22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="10">
         <v>18</v>
       </c>
-      <c r="AM22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ22" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ22" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>33.434994439999997</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>74.342116669999996</v>
       </c>
       <c r="E23" s="2">
         <v>1245</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>6.7</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>6</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>18.3</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>16.899999999999999</v>
       </c>
       <c r="J23" s="2">
@@ -3783,105 +3746,105 @@
       <c r="S23" s="2">
         <v>219</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="10">
         <v>2.19</v>
       </c>
-      <c r="U23" s="11">
-        <v>0</v>
-      </c>
-      <c r="V23" s="11">
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
         <v>136.77000000000001</v>
       </c>
-      <c r="W23" s="11">
+      <c r="W23" s="10">
         <v>34.43</v>
       </c>
-      <c r="X23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="11">
+      <c r="X23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="10">
         <v>69.2</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AA23" s="10">
         <v>24.1</v>
       </c>
-      <c r="AB23" s="11">
+      <c r="AB23" s="10">
         <v>6.7</v>
       </c>
-      <c r="AC23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI23" s="11">
+      <c r="AC23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI23" s="10">
         <v>48.7</v>
       </c>
-      <c r="AJ23" s="11">
+      <c r="AJ23" s="10">
         <v>20.5</v>
       </c>
-      <c r="AK23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="11">
+      <c r="AK23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="10">
         <v>24.6</v>
       </c>
-      <c r="AM23" s="11">
+      <c r="AM23" s="10">
         <v>6.2</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ23" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ23" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>33.462505559999997</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>74.359313889999996</v>
       </c>
       <c r="E24" s="2">
         <v>1563</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>6.61</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>5</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>20</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>15</v>
       </c>
       <c r="J24" s="2">
@@ -3914,105 +3877,105 @@
       <c r="S24" s="2">
         <v>234</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="10">
         <v>1.62</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="10">
         <v>1.71</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="10">
         <v>56.85</v>
       </c>
-      <c r="W24" s="12">
+      <c r="W24" s="11">
         <v>27.16</v>
       </c>
-      <c r="X24" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="11">
+      <c r="X24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="10">
         <v>3.6</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="Z24" s="10">
         <v>89.7</v>
       </c>
-      <c r="AA24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="11">
+      <c r="AA24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="10">
         <v>6.7</v>
       </c>
-      <c r="AC24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI24" s="11">
+      <c r="AC24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI24" s="10">
         <v>51.6</v>
       </c>
-      <c r="AJ24" s="11">
+      <c r="AJ24" s="10">
         <v>41.7</v>
       </c>
-      <c r="AK24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="11">
+      <c r="AK24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="10">
         <v>6.7</v>
       </c>
-      <c r="AM24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ24" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ24" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>33.481388889999998</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>74.382905559999998</v>
       </c>
       <c r="E25" s="2">
         <v>1740</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>6.7</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>4</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>24.8</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>15.7</v>
       </c>
       <c r="J25" s="2">
@@ -4045,105 +4008,105 @@
       <c r="S25" s="2">
         <v>232</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="10">
         <v>2.0299999999999998</v>
       </c>
-      <c r="U25" s="11">
-        <v>0</v>
-      </c>
-      <c r="V25" s="11">
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
         <v>126.05</v>
       </c>
-      <c r="W25" s="12">
+      <c r="W25" s="11">
         <v>100.55</v>
       </c>
-      <c r="X25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="11">
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="10">
         <v>72.3</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA25" s="10">
         <v>2.9</v>
       </c>
-      <c r="AB25" s="11">
+      <c r="AB25" s="10">
         <v>24.8</v>
       </c>
-      <c r="AC25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI25" s="11">
+      <c r="AC25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI25" s="10">
         <v>52.6</v>
       </c>
-      <c r="AJ25" s="11">
+      <c r="AJ25" s="10">
         <v>19.7</v>
       </c>
-      <c r="AK25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="11">
+      <c r="AK25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="10">
         <v>27.7</v>
       </c>
-      <c r="AM25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ25" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ25" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>33.498886110000001</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>74.397149999999996</v>
       </c>
       <c r="E26" s="2">
         <v>2067</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>6.2</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>4</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>25.1</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>13.1</v>
       </c>
       <c r="J26" s="2">
@@ -4176,105 +4139,105 @@
       <c r="S26" s="2">
         <v>252</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="10">
         <v>2.2400000000000002</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="10">
         <v>1.83</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="10">
         <v>232.5</v>
       </c>
-      <c r="W26" s="12">
+      <c r="W26" s="11">
         <v>156.63999999999999</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X26" s="10">
         <v>12.2</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Y26" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z26" s="10">
         <v>63.7</v>
       </c>
-      <c r="AA26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="11">
+      <c r="AA26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="10">
         <v>19.7</v>
       </c>
-      <c r="AC26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="11">
+      <c r="AC26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="10">
         <v>53.2</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AF26" s="10">
         <v>46.8</v>
       </c>
-      <c r="AG26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="11">
+      <c r="AG26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="10">
         <v>39.5</v>
       </c>
-      <c r="AJ26" s="11">
+      <c r="AJ26" s="10">
         <v>29.2</v>
       </c>
-      <c r="AK26" s="11">
+      <c r="AK26" s="10">
         <v>3.2</v>
       </c>
-      <c r="AL26" s="11">
+      <c r="AL26" s="10">
         <v>28</v>
       </c>
-      <c r="AM26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="11">
+      <c r="AM26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="10">
         <v>46.8</v>
       </c>
-      <c r="AO26" s="11">
+      <c r="AO26" s="10">
         <v>53.2</v>
       </c>
-      <c r="AP26" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>33.518836110000002</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>74.435138890000005</v>
       </c>
       <c r="E27" s="2">
         <v>2522</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>6.21</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>3</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>27</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>11</v>
       </c>
       <c r="J27" s="2">
@@ -4307,105 +4270,105 @@
       <c r="S27" s="2">
         <v>245</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="10">
         <v>2.44</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="10">
         <v>2.2200000000000002</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V27" s="10">
         <v>312.44</v>
       </c>
-      <c r="W27" s="12">
+      <c r="W27" s="11">
         <v>177.26</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X27" s="10">
         <v>18</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="Y27" s="10">
         <v>2.4</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="Z27" s="10">
         <v>56</v>
       </c>
-      <c r="AA27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="11">
+      <c r="AA27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="10">
         <v>23.6</v>
       </c>
-      <c r="AC27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="11">
+      <c r="AC27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="10">
         <v>22</v>
       </c>
-      <c r="AE27" s="11">
+      <c r="AE27" s="10">
         <v>50.5</v>
       </c>
-      <c r="AF27" s="11">
+      <c r="AF27" s="10">
         <v>27.5</v>
       </c>
-      <c r="AG27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="11">
+      <c r="AG27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="10">
         <v>23.9</v>
       </c>
-      <c r="AJ27" s="11">
+      <c r="AJ27" s="10">
         <v>43.2</v>
       </c>
-      <c r="AK27" s="11">
+      <c r="AK27" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AL27" s="11">
+      <c r="AL27" s="10">
         <v>28.7</v>
       </c>
-      <c r="AM27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="11">
+      <c r="AM27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="10">
         <v>27.5</v>
       </c>
-      <c r="AO27" s="11">
+      <c r="AO27" s="10">
         <v>72.5</v>
       </c>
-      <c r="AP27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>33.528080559999999</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>74.455108330000002</v>
       </c>
       <c r="E28" s="2">
         <v>2854</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>6.28</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>3</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>27</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>9.8000000000000007</v>
       </c>
       <c r="J28" s="2">
@@ -4438,105 +4401,105 @@
       <c r="S28" s="2">
         <v>238</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="10">
         <v>2.88</v>
       </c>
-      <c r="U28" s="11">
-        <v>0</v>
-      </c>
-      <c r="V28" s="11">
+      <c r="U28" s="10">
+        <v>0</v>
+      </c>
+      <c r="V28" s="10">
         <v>384.88</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W28" s="10">
         <v>99.92</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="10">
         <v>22</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y28" s="10">
         <v>1.4</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z28" s="10">
         <v>43.1</v>
       </c>
-      <c r="AA28" s="11">
+      <c r="AA28" s="10">
         <v>8.4</v>
       </c>
-      <c r="AB28" s="11">
+      <c r="AB28" s="10">
         <v>25.1</v>
       </c>
-      <c r="AC28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="11">
+      <c r="AC28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="10">
         <v>14.9</v>
       </c>
-      <c r="AE28" s="11">
+      <c r="AE28" s="10">
         <v>44.3</v>
       </c>
-      <c r="AF28" s="11">
+      <c r="AF28" s="10">
         <v>40.700000000000003</v>
       </c>
-      <c r="AG28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="11">
+      <c r="AG28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="10">
         <v>12.5</v>
       </c>
-      <c r="AJ28" s="11">
+      <c r="AJ28" s="10">
         <v>28</v>
       </c>
-      <c r="AK28" s="11">
+      <c r="AK28" s="10">
         <v>12.9</v>
       </c>
-      <c r="AL28" s="11">
+      <c r="AL28" s="10">
         <v>44.7</v>
       </c>
-      <c r="AM28" s="11">
+      <c r="AM28" s="10">
         <v>1.9</v>
       </c>
-      <c r="AN28" s="11">
+      <c r="AN28" s="10">
         <v>40.700000000000003</v>
       </c>
-      <c r="AO28" s="11">
+      <c r="AO28" s="10">
         <v>59.3</v>
       </c>
-      <c r="AP28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>33.511786110000003</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>74.486286109999995</v>
       </c>
       <c r="E29" s="2">
         <v>3109</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>6.31</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>3</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>29.2</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>7.2</v>
       </c>
       <c r="J29" s="2">
@@ -4569,105 +4532,105 @@
       <c r="S29" s="2">
         <v>230</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="10">
         <v>2.93</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="10">
         <v>6.19</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="10">
         <v>308.04000000000002</v>
       </c>
-      <c r="W29" s="11">
+      <c r="W29" s="10">
         <v>14.13</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X29" s="10">
         <v>28.6</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Y29" s="10">
         <v>2.9</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z29" s="10">
         <v>37.299999999999997</v>
       </c>
-      <c r="AA29" s="11">
+      <c r="AA29" s="10">
         <v>6.6</v>
       </c>
-      <c r="AB29" s="11">
+      <c r="AB29" s="10">
         <v>24.5</v>
       </c>
-      <c r="AC29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="11">
+      <c r="AC29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="10">
         <v>16.5</v>
       </c>
-      <c r="AE29" s="11">
+      <c r="AE29" s="10">
         <v>46.5</v>
       </c>
-      <c r="AF29" s="11">
+      <c r="AF29" s="10">
         <v>37</v>
       </c>
-      <c r="AG29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="11">
+      <c r="AG29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AJ29" s="11">
+      <c r="AJ29" s="10">
         <v>29.2</v>
       </c>
-      <c r="AK29" s="11">
+      <c r="AK29" s="10">
         <v>10.4</v>
       </c>
-      <c r="AL29" s="11">
+      <c r="AL29" s="10">
         <v>51.7</v>
       </c>
-      <c r="AM29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="11">
+      <c r="AM29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="10">
         <v>37</v>
       </c>
-      <c r="AO29" s="11">
+      <c r="AO29" s="10">
         <v>63</v>
       </c>
-      <c r="AP29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>33.502986110000002</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>74.495302780000003</v>
       </c>
       <c r="E30" s="2">
         <v>3410</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>6.06</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>1</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>30</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>6</v>
       </c>
       <c r="J30" s="2">
@@ -4700,105 +4663,105 @@
       <c r="S30" s="2">
         <v>228</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="10">
         <v>3.27</v>
       </c>
-      <c r="U30" s="11">
+      <c r="U30" s="10">
         <v>10.4</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V30" s="10">
         <v>375.95</v>
       </c>
-      <c r="W30" s="11">
+      <c r="W30" s="10">
         <v>8.34</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X30" s="10">
         <v>34</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="Y30" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="Z30" s="10">
         <v>18.3</v>
       </c>
-      <c r="AA30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="11">
+      <c r="AA30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="10">
         <v>43.1</v>
       </c>
-      <c r="AC30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="11">
+      <c r="AC30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="10">
         <v>16.899999999999999</v>
       </c>
-      <c r="AE30" s="11">
+      <c r="AE30" s="10">
         <v>44.6</v>
       </c>
-      <c r="AF30" s="11">
+      <c r="AF30" s="10">
         <v>38.6</v>
       </c>
-      <c r="AG30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="11">
+      <c r="AG30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="10">
         <v>5.4</v>
       </c>
-      <c r="AJ30" s="11">
+      <c r="AJ30" s="10">
         <v>9.6</v>
       </c>
-      <c r="AK30" s="11">
+      <c r="AK30" s="10">
         <v>5.8</v>
       </c>
-      <c r="AL30" s="11">
+      <c r="AL30" s="10">
         <v>79.2</v>
       </c>
-      <c r="AM30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="11">
+      <c r="AM30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="10">
         <v>34.5</v>
       </c>
-      <c r="AO30" s="11">
+      <c r="AO30" s="10">
         <v>65.5</v>
       </c>
-      <c r="AP30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" thickBot="1">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>33.494188889999997</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>74.511624999999995</v>
       </c>
       <c r="E31" s="2">
         <v>3637</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>6.2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>0.5</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>31.2</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>5.0999999999999996</v>
       </c>
       <c r="J31" s="2">
@@ -4831,84 +4794,84 @@
       <c r="S31" s="2">
         <v>233</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="10">
         <v>3.29</v>
       </c>
-      <c r="U31" s="11">
-        <v>0</v>
-      </c>
-      <c r="V31" s="11">
+      <c r="U31" s="10">
+        <v>0</v>
+      </c>
+      <c r="V31" s="10">
         <v>311.62</v>
       </c>
-      <c r="W31" s="11">
+      <c r="W31" s="10">
         <v>3.25</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X31" s="10">
         <v>44.5</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="Y31" s="10">
         <v>4.3</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z31" s="10">
         <v>4.7</v>
       </c>
-      <c r="AA31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="11">
+      <c r="AA31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="10">
         <v>46.4</v>
       </c>
-      <c r="AC31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="11">
+      <c r="AC31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="10">
         <v>15.4</v>
       </c>
-      <c r="AE31" s="11">
+      <c r="AE31" s="10">
         <v>42.3</v>
       </c>
-      <c r="AF31" s="11">
+      <c r="AF31" s="10">
         <v>42.3</v>
       </c>
-      <c r="AG31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="11">
+      <c r="AG31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="10">
         <v>3.2</v>
       </c>
-      <c r="AJ31" s="11">
+      <c r="AJ31" s="10">
         <v>2.4</v>
       </c>
-      <c r="AK31" s="11">
+      <c r="AK31" s="10">
         <v>2.9</v>
       </c>
-      <c r="AL31" s="11">
+      <c r="AL31" s="10">
         <v>91.5</v>
       </c>
-      <c r="AM31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="11">
+      <c r="AM31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="10">
         <v>37.799999999999997</v>
       </c>
-      <c r="AO31" s="11">
+      <c r="AO31" s="10">
         <v>62.2</v>
       </c>
-      <c r="AP31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="5">
@@ -4920,16 +4883,16 @@
       <c r="E32" s="2">
         <v>1030</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>5.71</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>7</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>16.5</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>16.2</v>
       </c>
       <c r="J32" s="2">
@@ -4962,80 +4925,80 @@
       <c r="S32" s="2">
         <v>206</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U32" s="11">
-        <v>0</v>
-      </c>
-      <c r="V32" s="11">
+      <c r="U32" s="10">
+        <v>0</v>
+      </c>
+      <c r="V32" s="10">
         <v>92.44</v>
       </c>
-      <c r="W32" s="11">
+      <c r="W32" s="10">
         <v>90.57</v>
       </c>
-      <c r="X32" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="11">
+      <c r="X32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="10">
         <v>100</v>
       </c>
-      <c r="AA32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI32" s="11">
+      <c r="AA32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI32" s="10">
         <v>85.1</v>
       </c>
-      <c r="AJ32" s="11">
+      <c r="AJ32" s="10">
         <v>14.9</v>
       </c>
-      <c r="AK32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ32" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ32" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -5051,16 +5014,16 @@
       <c r="E33" s="2">
         <v>1296</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>5.7</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>6</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>19.3</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>15.9</v>
       </c>
       <c r="J33" s="2">
@@ -5093,80 +5056,80 @@
       <c r="S33" s="2">
         <v>209</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="U33" s="11">
-        <v>0</v>
-      </c>
-      <c r="V33" s="11">
+      <c r="U33" s="10">
+        <v>0</v>
+      </c>
+      <c r="V33" s="10">
         <v>208.83</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W33" s="10">
         <v>207.37</v>
       </c>
-      <c r="X33" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="11">
+      <c r="X33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="10">
         <v>100</v>
       </c>
-      <c r="AA33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI33" s="11">
+      <c r="AA33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI33" s="10">
         <v>88.2</v>
       </c>
-      <c r="AJ33" s="11">
+      <c r="AJ33" s="10">
         <v>11.8</v>
       </c>
-      <c r="AK33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ33" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ33" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -5182,16 +5145,16 @@
       <c r="E34" s="2">
         <v>1710</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>6.51</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>4</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>15</v>
       </c>
       <c r="J34" s="2">
@@ -5224,80 +5187,80 @@
       <c r="S34" s="2">
         <v>225</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="U34" s="11">
-        <v>0</v>
-      </c>
-      <c r="V34" s="11">
+      <c r="U34" s="10">
+        <v>0</v>
+      </c>
+      <c r="V34" s="10">
         <v>253.73</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W34" s="10">
         <v>252.18</v>
       </c>
-      <c r="X34" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="11">
+      <c r="X34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="10">
         <v>100</v>
       </c>
-      <c r="AA34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI34" s="11">
+      <c r="AA34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI34" s="10">
         <v>87.5</v>
       </c>
-      <c r="AJ34" s="11">
+      <c r="AJ34" s="10">
         <v>12.5</v>
       </c>
-      <c r="AK34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ34" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ34" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -5313,16 +5276,16 @@
       <c r="E35" s="2">
         <v>2094</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>6.2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>4</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>23.8</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>14</v>
       </c>
       <c r="J35" s="2">
@@ -5355,80 +5318,80 @@
       <c r="S35" s="2">
         <v>238</v>
       </c>
-      <c r="T35" s="11">
+      <c r="T35" s="10">
         <v>1.79</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="10">
         <v>1.97</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V35" s="10">
         <v>218.57</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W35" s="10">
         <v>176.94</v>
       </c>
-      <c r="X35" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="11">
+      <c r="X35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="10">
         <v>8.6</v>
       </c>
-      <c r="Z35" s="11">
+      <c r="Z35" s="10">
         <v>78.8</v>
       </c>
-      <c r="AA35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="11">
+      <c r="AA35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="10">
         <v>12.6</v>
       </c>
-      <c r="AC35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI35" s="11">
+      <c r="AC35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI35" s="10">
         <v>50.5</v>
       </c>
-      <c r="AJ35" s="11">
+      <c r="AJ35" s="10">
         <v>32.4</v>
       </c>
-      <c r="AK35" s="11">
+      <c r="AK35" s="10">
         <v>4.5</v>
       </c>
-      <c r="AL35" s="11">
+      <c r="AL35" s="10">
         <v>12.6</v>
       </c>
-      <c r="AM35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ35" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ35" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -5444,16 +5407,16 @@
       <c r="E36" s="2">
         <v>2405</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>6.28</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>4</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>26.1</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>12.1</v>
       </c>
       <c r="J36" s="2">
@@ -5486,80 +5449,80 @@
       <c r="S36" s="2">
         <v>253</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="10">
         <v>2.57</v>
       </c>
-      <c r="U36" s="11">
-        <v>0</v>
-      </c>
-      <c r="V36" s="11">
+      <c r="U36" s="10">
+        <v>0</v>
+      </c>
+      <c r="V36" s="10">
         <v>69.3</v>
       </c>
-      <c r="W36" s="11">
+      <c r="W36" s="10">
         <v>2.4900000000000002</v>
       </c>
-      <c r="X36" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="11">
+      <c r="X36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="10">
         <v>7</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="Z36" s="10">
         <v>64.2</v>
       </c>
-      <c r="AA36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="11">
+      <c r="AA36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="10">
         <v>28.9</v>
       </c>
-      <c r="AC36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI36" s="11">
+      <c r="AC36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI36" s="10">
         <v>8</v>
       </c>
-      <c r="AJ36" s="11">
+      <c r="AJ36" s="10">
         <v>56.1</v>
       </c>
-      <c r="AK36" s="11">
+      <c r="AK36" s="10">
         <v>7</v>
       </c>
-      <c r="AL36" s="11">
+      <c r="AL36" s="10">
         <v>28.9</v>
       </c>
-      <c r="AM36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ36" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ36" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -5575,16 +5538,16 @@
       <c r="E37" s="2">
         <v>2597</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <v>6.7</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>28</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -5617,80 +5580,80 @@
       <c r="S37" s="2">
         <v>272</v>
       </c>
-      <c r="T37" s="11">
+      <c r="T37" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="U37" s="11">
-        <v>0</v>
-      </c>
-      <c r="V37" s="11">
+      <c r="U37" s="10">
+        <v>0</v>
+      </c>
+      <c r="V37" s="10">
         <v>174.02</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W37" s="10">
         <v>70.930000000000007</v>
       </c>
-      <c r="X37" s="11">
+      <c r="X37" s="10">
         <v>2.9</v>
       </c>
-      <c r="Y37" s="11">
+      <c r="Y37" s="10">
         <v>6.4</v>
       </c>
-      <c r="Z37" s="11">
+      <c r="Z37" s="10">
         <v>63.2</v>
       </c>
-      <c r="AA37" s="11">
+      <c r="AA37" s="10">
         <v>2.6</v>
       </c>
-      <c r="AB37" s="11">
+      <c r="AB37" s="10">
         <v>24.9</v>
       </c>
-      <c r="AC37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="11">
+      <c r="AC37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="10">
         <v>100</v>
       </c>
-      <c r="AG37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="11">
+      <c r="AG37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="10">
         <v>27.7</v>
       </c>
-      <c r="AJ37" s="11">
+      <c r="AJ37" s="10">
         <v>30.7</v>
       </c>
-      <c r="AK37" s="11">
+      <c r="AK37" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AL37" s="11">
+      <c r="AL37" s="10">
         <v>30.1</v>
       </c>
-      <c r="AM37" s="11">
+      <c r="AM37" s="10">
         <v>2.7</v>
       </c>
-      <c r="AN37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="11">
+      <c r="AN37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="10">
         <v>100</v>
       </c>
-      <c r="AP37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" thickBot="1">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -5706,16 +5669,16 @@
       <c r="E38" s="2">
         <v>2710</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>6.07</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>2</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>28.5</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>9.6999999999999993</v>
       </c>
       <c r="J38" s="2">
@@ -5748,80 +5711,80 @@
       <c r="S38" s="2">
         <v>259</v>
       </c>
-      <c r="T38" s="11">
+      <c r="T38" s="10">
         <v>2.88</v>
       </c>
-      <c r="U38" s="11">
+      <c r="U38" s="10">
         <v>2.62</v>
       </c>
-      <c r="V38" s="11">
+      <c r="V38" s="10">
         <v>218.84</v>
       </c>
-      <c r="W38" s="11">
+      <c r="W38" s="10">
         <v>43.84</v>
       </c>
-      <c r="X38" s="11">
+      <c r="X38" s="10">
         <v>0.7</v>
       </c>
-      <c r="Y38" s="11">
+      <c r="Y38" s="10">
         <v>5.5</v>
       </c>
-      <c r="Z38" s="11">
+      <c r="Z38" s="10">
         <v>55.6</v>
       </c>
-      <c r="AA38" s="11">
+      <c r="AA38" s="10">
         <v>12.4</v>
       </c>
-      <c r="AB38" s="11">
+      <c r="AB38" s="10">
         <v>25.9</v>
       </c>
-      <c r="AC38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="11">
+      <c r="AC38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="10">
         <v>100</v>
       </c>
-      <c r="AG38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="11">
+      <c r="AG38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="10">
         <v>15</v>
       </c>
-      <c r="AJ38" s="11">
+      <c r="AJ38" s="10">
         <v>32.5</v>
       </c>
-      <c r="AK38" s="11">
+      <c r="AK38" s="10">
         <v>3.7</v>
       </c>
-      <c r="AL38" s="11">
+      <c r="AL38" s="10">
         <v>47.5</v>
       </c>
-      <c r="AM38" s="11">
+      <c r="AM38" s="10">
         <v>1.4</v>
       </c>
-      <c r="AN38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="11">
+      <c r="AN38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="10">
         <v>100</v>
       </c>
-      <c r="AP38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AP38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" thickBot="1">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -5837,16 +5800,16 @@
       <c r="E39" s="2">
         <v>2987</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>6.41</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>1</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>29.7</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>8.1999999999999993</v>
       </c>
       <c r="J39" s="2">
@@ -5879,80 +5842,80 @@
       <c r="S39" s="2">
         <v>243</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="10">
         <v>3.15</v>
       </c>
-      <c r="U39" s="11">
+      <c r="U39" s="10">
         <v>15</v>
       </c>
-      <c r="V39" s="11">
+      <c r="V39" s="10">
         <v>237.15</v>
       </c>
-      <c r="W39" s="11">
+      <c r="W39" s="10">
         <v>35.01</v>
       </c>
-      <c r="X39" s="11">
+      <c r="X39" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Y39" s="10">
         <v>7.8</v>
       </c>
-      <c r="Z39" s="11">
+      <c r="Z39" s="10">
         <v>41.5</v>
       </c>
-      <c r="AA39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="11">
+      <c r="AA39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="10">
         <v>40.5</v>
       </c>
-      <c r="AC39" s="11">
+      <c r="AC39" s="10">
         <v>14.3</v>
       </c>
-      <c r="AD39" s="11">
+      <c r="AD39" s="10">
         <v>26.2</v>
       </c>
-      <c r="AE39" s="11">
+      <c r="AE39" s="10">
         <v>14.3</v>
       </c>
-      <c r="AF39" s="11">
+      <c r="AF39" s="10">
         <v>45.2</v>
       </c>
-      <c r="AG39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="11">
+      <c r="AG39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AJ39" s="11">
+      <c r="AJ39" s="10">
         <v>32.700000000000003</v>
       </c>
-      <c r="AK39" s="11">
+      <c r="AK39" s="10">
         <v>5.4</v>
       </c>
-      <c r="AL39" s="11">
+      <c r="AL39" s="10">
         <v>57.3</v>
       </c>
-      <c r="AM39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="11">
+      <c r="AM39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="10">
         <v>16.7</v>
       </c>
-      <c r="AO39" s="11">
-        <v>69</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="13">
+      <c r="AO39" s="10">
+        <v>69</v>
+      </c>
+      <c r="AP39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="12">
         <v>14.3</v>
       </c>
     </row>
-    <row r="40" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" thickBot="1">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -5968,16 +5931,16 @@
       <c r="E40" s="2">
         <v>3285</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <v>6.36</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>1</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>32</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>5</v>
       </c>
       <c r="J40" s="2">
@@ -6010,80 +5973,80 @@
       <c r="S40" s="2">
         <v>248</v>
       </c>
-      <c r="T40" s="11">
+      <c r="T40" s="10">
         <v>3.42</v>
       </c>
-      <c r="U40" s="11">
+      <c r="U40" s="10">
         <v>10.49</v>
       </c>
-      <c r="V40" s="11">
+      <c r="V40" s="10">
         <v>289.33999999999997</v>
       </c>
-      <c r="W40" s="11">
+      <c r="W40" s="10">
         <v>7.74</v>
       </c>
-      <c r="X40" s="11">
+      <c r="X40" s="10">
         <v>13</v>
       </c>
-      <c r="Y40" s="11">
+      <c r="Y40" s="10">
         <v>7.6</v>
       </c>
-      <c r="Z40" s="11">
+      <c r="Z40" s="10">
         <v>21.2</v>
       </c>
-      <c r="AA40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="11">
+      <c r="AA40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="10">
         <v>58.3</v>
       </c>
-      <c r="AC40" s="11">
+      <c r="AC40" s="10">
         <v>7.7</v>
       </c>
-      <c r="AD40" s="11">
+      <c r="AD40" s="10">
         <v>13.8</v>
       </c>
-      <c r="AE40" s="11">
+      <c r="AE40" s="10">
         <v>21.5</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AF40" s="10">
         <v>56.9</v>
       </c>
-      <c r="AG40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="11">
+      <c r="AG40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="10">
         <v>7.3</v>
       </c>
-      <c r="AJ40" s="11">
+      <c r="AJ40" s="10">
         <v>10.6</v>
       </c>
-      <c r="AK40" s="11">
+      <c r="AK40" s="10">
         <v>8</v>
       </c>
-      <c r="AL40" s="11">
+      <c r="AL40" s="10">
         <v>74.099999999999994</v>
       </c>
-      <c r="AM40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="11">
+      <c r="AM40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="10">
         <v>20</v>
       </c>
-      <c r="AO40" s="11">
+      <c r="AO40" s="10">
         <v>72.3</v>
       </c>
-      <c r="AP40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="13">
+      <c r="AP40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="12">
         <v>7.7</v>
       </c>
     </row>
-    <row r="41" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -6099,16 +6062,16 @@
       <c r="E41" s="2">
         <v>3695</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <v>5.9</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>0.5</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>32.9</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>4.0999999999999996</v>
       </c>
       <c r="J41" s="2">
@@ -6141,76 +6104,76 @@
       <c r="S41" s="2">
         <v>240</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="10">
         <v>3.62</v>
       </c>
-      <c r="U41" s="11">
-        <v>0</v>
-      </c>
-      <c r="V41" s="11">
+      <c r="U41" s="10">
+        <v>0</v>
+      </c>
+      <c r="V41" s="10">
         <v>376.2</v>
       </c>
-      <c r="W41" s="11">
+      <c r="W41" s="10">
         <v>6.01</v>
       </c>
-      <c r="X41" s="11">
+      <c r="X41" s="10">
         <v>13.1</v>
       </c>
-      <c r="Y41" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="11">
+      <c r="Y41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="AA41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="11">
+      <c r="AA41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="10">
         <v>76.599999999999994</v>
       </c>
-      <c r="AC41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="11">
+      <c r="AC41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="10">
         <v>38.200000000000003</v>
       </c>
-      <c r="AF41" s="11">
+      <c r="AF41" s="10">
         <v>61.8</v>
       </c>
-      <c r="AG41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="11">
+      <c r="AG41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="10">
         <v>5.3</v>
       </c>
-      <c r="AJ41" s="11">
+      <c r="AJ41" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AK41" s="11">
+      <c r="AK41" s="10">
         <v>5.3</v>
       </c>
-      <c r="AL41" s="11">
+      <c r="AL41" s="10">
         <v>88.2</v>
       </c>
-      <c r="AM41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="11">
+      <c r="AM41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="10">
         <v>35.299999999999997</v>
       </c>
-      <c r="AO41" s="11">
+      <c r="AO41" s="10">
         <v>64.7</v>
       </c>
-      <c r="AP41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="13">
+      <c r="AP41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6228,13 +6191,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="56.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6242,7 +6208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -6250,7 +6216,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -6258,7 +6224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -6266,7 +6232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6274,7 +6240,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -6282,7 +6248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6290,7 +6256,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -6298,7 +6264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -6306,7 +6272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -6314,7 +6280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -6322,7 +6288,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -6330,7 +6296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -6338,7 +6304,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -6346,7 +6312,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -6354,7 +6320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -6362,7 +6328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -6370,7 +6336,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -6378,7 +6344,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -6386,7 +6352,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -6394,7 +6360,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -6402,7 +6368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -6410,7 +6376,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -6418,7 +6384,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -6426,7 +6392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -6434,7 +6400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -6442,7 +6408,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -6450,7 +6416,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -6458,7 +6424,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -6466,7 +6432,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -6474,7 +6440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -6482,7 +6448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -6490,7 +6456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -6498,7 +6464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -6506,12 +6472,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -6519,7 +6485,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -6527,7 +6493,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -6535,7 +6501,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -6543,7 +6509,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -6551,7 +6517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -6559,7 +6525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -6567,7 +6533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>83</v>
       </c>
